--- a/biology/Zoologie/Drymobius_rhombifer/Drymobius_rhombifer.xlsx
+++ b/biology/Zoologie/Drymobius_rhombifer/Drymobius_rhombifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drymobius rhombifer est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drymobius rhombifer est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Bolivie ;
 au Brésil, dans les États d'Amazonas, de Rondônia et de Roraima ;
 en Colombie ;
@@ -551,9 +565,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Günther indique que le spécimen en sa possession mesure 110 cm dont 28 cm pour la queue. Son dos est brun grisâtre avec une série de 34 losanges roux dont deux bords opposés présentent une teinte noirâtre. Ces motifs sont plus marqués dans la partie antérieure du corps et se prolongent sur la queue. Le ventre est marbré de noirâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Günther indique que le spécimen en sa possession mesure 110 cm dont 28 cm pour la queue. Son dos est brun grisâtre avec une série de 34 losanges roux dont deux bords opposés présentent une teinte noirâtre. Ces motifs sont plus marqués dans la partie antérieure du corps et se prolongent sur la queue. Le ventre est marbré de noirâtre.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, du latin rhombus, « losange », et fero, « porter », lui a été donnée en référence à sa livrée.
 </t>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1860 : Third list of the col-blooded vertebrata collected by Mr. Fraser in Ecuador. Proceedings of the Zoological Society of London, vol. 1860, p. 233-240 (texte intégral).</t>
         </is>
